--- a/static/Modele_Cogu_import.xlsx
+++ b/static/Modele_Cogu_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogahserge/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157FB120-3A28-034A-B3EA-310D7144F2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5503D922-EE5C-6440-95BF-C505C3711A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{BE6AB5C7-6F4B-CC4A-9C84-4A8C4122BB8B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -118,9 +118,6 @@
     <t>KORHOGO</t>
   </si>
   <si>
-    <t>DIANRAH</t>
-  </si>
-  <si>
     <t>NAPIE</t>
   </si>
   <si>
@@ -196,18 +193,12 @@
     <t>GAGNOA</t>
   </si>
   <si>
-    <t xml:space="preserve">M'bayakro </t>
-  </si>
-  <si>
     <t>véhicule de transport en commun  ( une personne de 54 ans qui présentait une fracture ouverte au niveau de la jambe gauche)</t>
   </si>
   <si>
     <t>ISSIA</t>
   </si>
   <si>
-    <t xml:space="preserve">Yopougon </t>
-  </si>
-  <si>
     <t>Vridi</t>
   </si>
   <si>
@@ -364,7 +355,19 @@
     <t>Evenement</t>
   </si>
   <si>
-    <t xml:space="preserve">Paque </t>
+    <t>DIANRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M'Bahiakro </t>
+  </si>
+  <si>
+    <t>HG YAKASSE</t>
+  </si>
+  <si>
+    <t>HG MEAGUI</t>
+  </si>
+  <si>
+    <t>Pâque</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -513,17 +516,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F51D0-2892-5F4F-92B8-4B7CDCE73930}">
   <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E151" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -883,8 +885,8 @@
       <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>107</v>
+      <c r="I1" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17">
@@ -895,13 +897,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" s="14">
         <v>4</v>
@@ -913,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17">
@@ -924,13 +926,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" s="14">
         <v>3</v>
@@ -942,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17">
@@ -953,13 +955,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" s="14">
         <v>8</v>
@@ -971,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17">
@@ -982,13 +984,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F5" s="14">
         <v>4</v>
@@ -1000,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17">
@@ -1011,13 +1013,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6" s="14">
         <v>2</v>
@@ -1029,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17">
@@ -1040,13 +1042,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7" s="14">
         <v>2</v>
@@ -1058,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17">
@@ -1069,13 +1071,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
@@ -1087,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17">
@@ -1098,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" s="14">
         <v>1</v>
@@ -1116,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17">
@@ -1127,13 +1129,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="14">
         <v>1</v>
@@ -1145,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17">
@@ -1156,13 +1158,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" s="14">
         <v>1</v>
@@ -1174,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17">
@@ -1185,13 +1187,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" s="14">
         <v>1</v>
@@ -1203,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17">
@@ -1214,13 +1216,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F13" s="14">
         <v>1</v>
@@ -1232,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17">
@@ -1243,13 +1245,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" s="14">
         <v>1</v>
@@ -1261,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17">
@@ -1272,13 +1274,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
@@ -1290,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17">
@@ -1301,13 +1303,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F16" s="14">
         <v>1</v>
@@ -1319,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17">
@@ -1330,13 +1332,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F17" s="14">
         <v>1</v>
@@ -1348,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17">
@@ -1356,16 +1358,16 @@
         <v>45766</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F18" s="14">
         <v>1</v>
@@ -1377,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17">
@@ -1388,13 +1390,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F19" s="14">
         <v>1</v>
@@ -1406,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17">
@@ -1417,13 +1419,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F20" s="14">
         <v>1</v>
@@ -1435,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="17">
@@ -1446,13 +1448,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F21" s="14">
         <v>1</v>
@@ -1464,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17">
@@ -1475,13 +1477,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F22" s="14">
         <v>1</v>
@@ -1493,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17">
@@ -1504,13 +1506,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F23" s="14">
         <v>1</v>
@@ -1522,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17">
@@ -1533,13 +1535,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F24" s="14">
         <v>1</v>
@@ -1551,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17">
@@ -1562,13 +1564,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F25" s="14">
         <v>1</v>
@@ -1580,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17">
@@ -1591,13 +1593,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F26" s="14">
         <v>1</v>
@@ -1609,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17">
@@ -1620,13 +1622,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F27" s="14">
         <v>1</v>
@@ -1638,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17">
@@ -1649,13 +1651,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F28" s="14">
         <v>1</v>
@@ -1667,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17">
@@ -1678,13 +1680,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F29" s="14">
         <v>1</v>
@@ -1696,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17">
@@ -1707,13 +1709,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F30" s="14">
         <v>1</v>
@@ -1725,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17">
@@ -1736,13 +1738,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F31" s="14">
         <v>1</v>
@@ -1754,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17">
@@ -1765,13 +1767,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F32" s="14">
         <v>1</v>
@@ -1783,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1794,13 +1796,13 @@
         <v>7</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F33" s="14">
         <v>1</v>
@@ -1812,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1823,13 +1825,13 @@
         <v>7</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F34" s="14">
         <v>1</v>
@@ -1841,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1852,13 +1854,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F35" s="14">
         <v>1</v>
@@ -1870,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1881,13 +1883,13 @@
         <v>7</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F36" s="14">
         <v>1</v>
@@ -1899,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1910,13 +1912,13 @@
         <v>7</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F37" s="14">
         <v>1</v>
@@ -1928,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18">
@@ -1939,13 +1941,13 @@
         <v>7</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F38" s="14">
         <v>1</v>
@@ -1957,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18">
@@ -1968,13 +1970,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" s="14">
         <v>1</v>
@@ -1986,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1997,13 +1999,13 @@
         <v>7</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F40" s="14">
         <v>1</v>
@@ -2015,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2026,13 +2028,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F41" s="14">
         <v>1</v>
@@ -2044,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17">
@@ -2055,13 +2057,13 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="F42" s="14">
         <v>3</v>
@@ -2073,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="17">
@@ -2084,13 +2086,13 @@
         <v>7</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" s="14">
         <v>2</v>
@@ -2102,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="17">
@@ -2110,16 +2112,16 @@
         <v>45766</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="F44" s="14">
         <v>2</v>
@@ -2131,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17">
@@ -2139,16 +2141,16 @@
         <v>45766</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="F45" s="14">
         <v>6</v>
@@ -2160,7 +2162,7 @@
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2177,7 +2179,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F46" s="14">
         <v>1</v>
@@ -2189,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2206,7 +2208,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F47" s="14">
         <v>1</v>
@@ -2218,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2235,7 +2237,7 @@
         <v>20</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F48" s="14">
         <v>1</v>
@@ -2247,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2264,7 +2266,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F49" s="14">
         <v>1</v>
@@ -2276,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2293,7 +2295,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F50" s="14">
         <v>1</v>
@@ -2305,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2322,7 +2324,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F51" s="14">
         <v>1</v>
@@ -2334,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2351,7 +2353,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F52" s="14">
         <v>1</v>
@@ -2363,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2380,7 +2382,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F53" s="14">
         <v>1</v>
@@ -2392,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2409,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F54" s="14">
         <v>1</v>
@@ -2421,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2438,7 +2440,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F55" s="14">
         <v>1</v>
@@ -2450,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2467,7 +2469,7 @@
         <v>20</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F56" s="14">
         <v>1</v>
@@ -2479,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2496,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F57" s="14">
         <v>1</v>
@@ -2508,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2525,7 +2527,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F58" s="14">
         <v>1</v>
@@ -2537,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2554,7 +2556,7 @@
         <v>20</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F59" s="14">
         <v>1</v>
@@ -2566,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2583,7 +2585,7 @@
         <v>20</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F60" s="14">
         <v>1</v>
@@ -2595,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2612,7 +2614,7 @@
         <v>20</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F61" s="14">
         <v>1</v>
@@ -2624,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17">
@@ -2653,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="17">
@@ -2682,7 +2684,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="17">
@@ -2711,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2722,13 +2724,13 @@
         <v>7</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F65" s="14">
         <v>1</v>
@@ -2740,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2751,13 +2753,13 @@
         <v>7</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F66" s="14">
         <v>1</v>
@@ -2769,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2780,13 +2782,13 @@
         <v>7</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F67" s="14">
         <v>1</v>
@@ -2798,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2809,13 +2811,13 @@
         <v>7</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F68" s="14">
         <v>1</v>
@@ -2827,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2838,13 +2840,13 @@
         <v>7</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F69" s="14">
         <v>1</v>
@@ -2856,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2867,13 +2869,13 @@
         <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F70" s="14">
         <v>1</v>
@@ -2885,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2896,13 +2898,13 @@
         <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F71" s="14">
         <v>1</v>
@@ -2914,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17">
@@ -2922,17 +2924,17 @@
         <v>45766</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D72" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="F72" s="14">
         <v>1</v>
       </c>
@@ -2943,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17">
@@ -2954,10 +2956,10 @@
         <v>7</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>12</v>
@@ -2972,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17">
@@ -2983,13 +2985,13 @@
         <v>7</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F74" s="14">
         <v>1</v>
@@ -3001,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="17">
@@ -3012,13 +3014,13 @@
         <v>7</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F75" s="14">
         <v>2</v>
@@ -3030,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17">
@@ -3041,13 +3043,13 @@
         <v>7</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F76" s="14">
         <v>2</v>
@@ -3059,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17">
@@ -3070,13 +3072,13 @@
         <v>7</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F77" s="14">
         <v>2</v>
@@ -3088,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="17">
@@ -3099,13 +3101,13 @@
         <v>7</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F78" s="14">
         <v>2</v>
@@ -3117,7 +3119,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="17">
@@ -3128,13 +3130,13 @@
         <v>7</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F79" s="14">
         <v>2</v>
@@ -3146,7 +3148,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3157,13 +3159,13 @@
         <v>7</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>102</v>
+        <v>66</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F80" s="14">
         <v>1</v>
@@ -3175,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3186,13 +3188,13 @@
         <v>7</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>102</v>
+        <v>66</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F81" s="14">
         <v>1</v>
@@ -3204,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3215,13 +3217,13 @@
         <v>7</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>102</v>
+        <v>66</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F82" s="14">
         <v>1</v>
@@ -3233,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3244,13 +3246,13 @@
         <v>7</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>102</v>
+        <v>66</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F83" s="14">
         <v>1</v>
@@ -3262,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3273,13 +3275,13 @@
         <v>7</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>102</v>
+        <v>66</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F84" s="14">
         <v>1</v>
@@ -3291,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="17">
@@ -3302,13 +3304,13 @@
         <v>7</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F85" s="14">
         <v>1</v>
@@ -3320,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="17">
@@ -3331,13 +3333,13 @@
         <v>7</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F86" s="14">
         <v>1</v>
@@ -3349,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="17">
@@ -3360,13 +3362,13 @@
         <v>7</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F87" s="14">
         <v>1</v>
@@ -3378,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="17">
@@ -3389,13 +3391,13 @@
         <v>7</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F88" s="14">
         <v>1</v>
@@ -3407,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="17">
@@ -3418,13 +3420,13 @@
         <v>7</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F89" s="14">
         <v>1</v>
@@ -3436,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="17">
@@ -3447,13 +3449,13 @@
         <v>7</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F90" s="14">
         <v>1</v>
@@ -3465,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="17">
@@ -3476,13 +3478,13 @@
         <v>7</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F91" s="14">
         <v>1</v>
@@ -3494,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3505,13 +3507,13 @@
         <v>7</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F92" s="14">
         <v>1</v>
@@ -3523,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3534,13 +3536,13 @@
         <v>7</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F93" s="14">
         <v>1</v>
@@ -3552,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3563,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F94" s="14">
         <v>1</v>
@@ -3581,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3592,13 +3594,13 @@
         <v>7</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F95" s="14">
         <v>1</v>
@@ -3610,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3621,13 +3623,13 @@
         <v>7</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F96" s="14">
         <v>1</v>
@@ -3639,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="18">
@@ -3650,13 +3652,13 @@
         <v>7</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F97" s="14">
         <v>1</v>
@@ -3668,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="18">
@@ -3679,13 +3681,13 @@
         <v>7</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F98" s="14">
         <v>1</v>
@@ -3697,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="18">
@@ -3708,13 +3710,13 @@
         <v>7</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F99" s="14">
         <v>1</v>
@@ -3726,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="18">
@@ -3737,13 +3739,13 @@
         <v>7</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F100" s="14">
         <v>1</v>
@@ -3755,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="18">
@@ -3766,13 +3768,13 @@
         <v>7</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F101" s="14">
         <v>1</v>
@@ -3784,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="18">
@@ -3795,13 +3797,13 @@
         <v>7</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F102" s="14">
         <v>1</v>
@@ -3813,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="18">
@@ -3824,13 +3826,13 @@
         <v>7</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F103" s="14">
         <v>1</v>
@@ -3842,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3856,10 +3858,10 @@
         <v>25</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F104" s="14">
         <v>1</v>
@@ -3871,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3885,10 +3887,10 @@
         <v>25</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F105" s="14">
         <v>1</v>
@@ -3900,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3914,10 +3916,10 @@
         <v>25</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F106" s="14">
         <v>1</v>
@@ -3929,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3943,10 +3945,10 @@
         <v>25</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F107" s="14">
         <v>1</v>
@@ -3958,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3972,10 +3974,10 @@
         <v>25</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F108" s="14">
         <v>1</v>
@@ -3987,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4001,10 +4003,10 @@
         <v>25</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F109" s="14">
         <v>1</v>
@@ -4016,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4030,10 +4032,10 @@
         <v>25</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F110" s="14">
         <v>1</v>
@@ -4045,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="17">
@@ -4056,13 +4058,13 @@
         <v>7</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F111" s="14">
         <v>16</v>
@@ -4074,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="17">
@@ -4082,17 +4084,17 @@
         <v>45766</v>
       </c>
       <c r="B112" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="F112" s="14">
         <v>1</v>
       </c>
@@ -4103,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4114,13 +4116,13 @@
         <v>7</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="E113" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F113" s="14">
         <v>2</v>
@@ -4132,7 +4134,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4143,13 +4145,13 @@
         <v>7</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D114" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="E114" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F114" s="14">
         <v>1</v>
@@ -4161,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="17">
@@ -4172,11 +4174,13 @@
         <v>7</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D115" s="16"/>
+        <v>72</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="E115" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F115" s="14">
         <v>1</v>
@@ -4188,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4199,13 +4203,13 @@
         <v>7</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F116" s="14">
         <v>1</v>
@@ -4217,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4228,13 +4232,13 @@
         <v>7</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F117" s="14">
         <v>1</v>
@@ -4246,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4257,13 +4261,13 @@
         <v>7</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F118" s="14">
         <v>1</v>
@@ -4275,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4286,13 +4290,13 @@
         <v>7</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F119" s="14">
         <v>1</v>
@@ -4304,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4315,13 +4319,13 @@
         <v>7</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F120" s="14">
         <v>1</v>
@@ -4333,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4344,13 +4348,13 @@
         <v>7</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F121" s="14">
         <v>1</v>
@@ -4362,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4373,13 +4377,13 @@
         <v>7</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F122" s="14">
         <v>1</v>
@@ -4391,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4402,13 +4406,13 @@
         <v>7</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F123" s="14">
         <v>1</v>
@@ -4420,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="17">
@@ -4431,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F124" s="14">
         <v>1</v>
@@ -4449,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="17">
@@ -4457,16 +4461,16 @@
         <v>45766</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F125" s="14">
         <v>1</v>
@@ -4478,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="17">
@@ -4489,13 +4493,13 @@
         <v>7</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F126" s="14">
         <v>2</v>
@@ -4507,7 +4511,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4518,13 +4522,13 @@
         <v>7</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F127" s="14">
         <v>2</v>
@@ -4536,7 +4540,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4547,13 +4551,13 @@
         <v>7</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F128" s="14">
         <v>2</v>
@@ -4565,7 +4569,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4576,13 +4580,13 @@
         <v>7</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F129" s="14">
         <v>1</v>
@@ -4594,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4605,13 +4609,13 @@
         <v>7</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F130" s="14">
         <v>1</v>
@@ -4623,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4634,13 +4638,13 @@
         <v>7</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F131" s="14">
         <v>1</v>
@@ -4652,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4663,13 +4667,13 @@
         <v>7</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F132" s="14">
         <v>1</v>
@@ -4681,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4692,13 +4696,13 @@
         <v>7</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F133" s="14">
         <v>1</v>
@@ -4710,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4721,13 +4725,13 @@
         <v>7</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F134" s="14">
         <v>1</v>
@@ -4739,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4750,13 +4754,13 @@
         <v>7</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F135" s="14">
         <v>1</v>
@@ -4768,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4779,11 +4783,13 @@
         <v>7</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D136" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="E136" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F136" s="14">
         <v>1</v>
@@ -4795,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4806,11 +4812,13 @@
         <v>7</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D137" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="E137" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F137" s="14">
         <v>1</v>
@@ -4822,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4833,11 +4841,13 @@
         <v>7</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D138" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="E138" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F138" s="14">
         <v>1</v>
@@ -4849,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4860,11 +4870,13 @@
         <v>7</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D139" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="E139" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F139" s="14">
         <v>1</v>
@@ -4876,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4887,11 +4899,13 @@
         <v>7</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D140" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="E140" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F140" s="14">
         <v>1</v>
@@ -4903,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4920,7 +4934,7 @@
         <v>17</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F141" s="14">
         <v>1</v>
@@ -4932,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="17">
@@ -4943,13 +4957,13 @@
         <v>7</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F142" s="14">
         <v>1</v>
@@ -4961,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="17">
@@ -4972,11 +4986,13 @@
         <v>7</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D143" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="E143" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F143" s="14">
         <v>1</v>
@@ -4988,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="17">
@@ -4999,11 +5015,13 @@
         <v>7</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D144" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="E144" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F144" s="14">
         <v>1</v>
@@ -5015,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="17">
@@ -5026,11 +5044,13 @@
         <v>7</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D145" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="E145" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F145" s="14">
         <v>1</v>
@@ -5042,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5053,11 +5073,13 @@
         <v>7</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D146" s="16"/>
+        <v>59</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="E146" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F146" s="14">
         <v>1</v>
@@ -5069,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5080,11 +5102,13 @@
         <v>7</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D147" s="16"/>
+        <v>59</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="E147" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F147" s="14">
         <v>1</v>
@@ -5096,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="17">
@@ -5107,13 +5131,13 @@
         <v>7</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F148" s="14">
         <v>6</v>
@@ -5125,7 +5149,7 @@
         <v>6</v>
       </c>
       <c r="I148" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="17">
@@ -5136,13 +5160,13 @@
         <v>7</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F149" s="14">
         <v>2</v>
@@ -5154,7 +5178,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="17">
@@ -5165,13 +5189,13 @@
         <v>7</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F150" s="14">
         <v>4</v>
@@ -5183,7 +5207,7 @@
         <v>4</v>
       </c>
       <c r="I150" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="17">
@@ -5194,13 +5218,13 @@
         <v>7</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F151" s="14">
         <v>3</v>
@@ -5212,7 +5236,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="17">
@@ -5223,13 +5247,13 @@
         <v>7</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F152" s="14">
         <v>2</v>
@@ -5241,7 +5265,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="17">
@@ -5252,13 +5276,13 @@
         <v>7</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F153" s="14">
         <v>1</v>
@@ -5270,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="17">
@@ -5281,13 +5305,13 @@
         <v>7</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F154" s="14">
         <v>1</v>
@@ -5299,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="17">
@@ -5310,13 +5334,13 @@
         <v>7</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F155" s="14">
         <v>4</v>
@@ -5328,7 +5352,7 @@
         <v>4</v>
       </c>
       <c r="I155" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="17">
@@ -5339,13 +5363,13 @@
         <v>7</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F156" s="14">
         <v>1</v>
@@ -5357,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="17">
@@ -5368,13 +5392,13 @@
         <v>7</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F157" s="14">
         <v>3</v>
@@ -5386,7 +5410,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="17">
@@ -5397,13 +5421,13 @@
         <v>7</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F158" s="14">
         <v>1</v>
@@ -5415,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="17">
@@ -5426,13 +5450,13 @@
         <v>7</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F159" s="14">
         <v>2</v>
@@ -5444,7 +5468,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="17">
@@ -5455,13 +5479,13 @@
         <v>7</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F160" s="14">
         <v>1</v>
@@ -5473,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="17">
@@ -5502,7 +5526,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="17">
@@ -5531,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5548,7 +5572,7 @@
         <v>10</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F163" s="14">
         <v>1</v>
@@ -5560,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5577,7 +5601,7 @@
         <v>10</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F164" s="14">
         <v>1</v>
@@ -5589,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5606,7 +5630,7 @@
         <v>10</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F165" s="14">
         <v>1</v>
@@ -5618,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5635,7 +5659,7 @@
         <v>10</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F166" s="14">
         <v>1</v>
@@ -5647,24 +5671,24 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="2">
         <v>45766</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>55</v>
+      <c r="C167" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F167" s="14">
         <v>1</v>
@@ -5676,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5687,13 +5711,13 @@
         <v>7</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F168" s="14">
         <v>1</v>
@@ -5705,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/static/Modele_Cogu_import.xlsx
+++ b/static/Modele_Cogu_import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogahserge/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5503D922-EE5C-6440-95BF-C505C3711A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D097F112-FBC8-B147-BC4B-1E5D8983A473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{BE6AB5C7-6F4B-CC4A-9C84-4A8C4122BB8B}"/>
+    <workbookView xWindow="820" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{BE6AB5C7-6F4B-CC4A-9C84-4A8C4122BB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -517,7 +517,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -528,6 +527,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -845,15 +846,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F51D0-2892-5F4F-92B8-4B7CDCE73930}">
   <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="133.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" style="15" bestFit="1" customWidth="1"/>
@@ -870,7 +871,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -885,34 +886,34 @@
       <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17">
       <c r="A2" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>47</v>
+      <c r="C2" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F2" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" s="14">
         <v>0</v>
       </c>
       <c r="H2" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>109</v>
@@ -920,28 +921,28 @@
     </row>
     <row r="3" spans="1:9" ht="17">
       <c r="A3" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F3" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="14">
         <v>0</v>
       </c>
       <c r="H3" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>109</v>
@@ -949,28 +950,28 @@
     </row>
     <row r="4" spans="1:9" ht="17">
       <c r="A4" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>47</v>
+      <c r="C4" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>108</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="F4" s="14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G4" s="14">
         <v>0</v>
       </c>
       <c r="H4" s="14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>109</v>
@@ -978,28 +979,28 @@
     </row>
     <row r="5" spans="1:9" ht="17">
       <c r="A5" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F5" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
       </c>
       <c r="H5" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
         <v>109</v>
@@ -1007,19 +1008,19 @@
     </row>
     <row r="6" spans="1:9" ht="17">
       <c r="A6" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F6" s="14">
         <v>2</v>
@@ -1028,56 +1029,56 @@
         <v>0</v>
       </c>
       <c r="H6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>47</v>
+      <c r="C7" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F7" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="14">
         <v>0</v>
       </c>
       <c r="H7" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>47</v>
+      <c r="C8" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
@@ -1094,19 +1095,19 @@
     </row>
     <row r="9" spans="1:9" ht="17">
       <c r="A9" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F9" s="14">
         <v>1</v>
@@ -1121,21 +1122,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>47</v>
+      <c r="C10" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F10" s="14">
         <v>1</v>
@@ -1150,21 +1151,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
+      <c r="C11" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F11" s="14">
         <v>1</v>
@@ -1179,21 +1180,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>48</v>
+      <c r="C12" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F12" s="14">
         <v>1</v>
@@ -1208,21 +1209,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>48</v>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F13" s="14">
         <v>1</v>
@@ -1237,21 +1238,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>48</v>
+      <c r="C14" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F14" s="14">
         <v>1</v>
@@ -1266,21 +1267,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>48</v>
+      <c r="C15" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
@@ -1295,21 +1296,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>48</v>
+      <c r="C16" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F16" s="14">
         <v>1</v>
@@ -1324,21 +1325,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>48</v>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F17" s="14">
         <v>1</v>
@@ -1353,21 +1354,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>55</v>
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F18" s="14">
         <v>1</v>
@@ -1376,27 +1377,27 @@
         <v>0</v>
       </c>
       <c r="H18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>55</v>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F19" s="14">
         <v>1</v>
@@ -1411,21 +1412,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>55</v>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F20" s="14">
         <v>1</v>
@@ -1440,21 +1441,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>55</v>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F21" s="14">
         <v>1</v>
@@ -1469,21 +1470,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>55</v>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F22" s="14">
         <v>1</v>
@@ -1498,21 +1499,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>55</v>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F23" s="14">
         <v>1</v>
@@ -1527,50 +1528,50 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>55</v>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F24" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="14">
         <v>0</v>
       </c>
       <c r="H24" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17">
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>55</v>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F25" s="14">
         <v>1</v>
@@ -1585,21 +1586,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>55</v>
+      <c r="C26" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F26" s="14">
         <v>1</v>
@@ -1614,21 +1615,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17">
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>55</v>
+      <c r="C27" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F27" s="14">
         <v>1</v>
@@ -1643,21 +1644,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17">
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>55</v>
+      <c r="C28" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F28" s="14">
         <v>1</v>
@@ -1672,21 +1673,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17">
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>58</v>
+      <c r="C29" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F29" s="14">
         <v>1</v>
@@ -1701,21 +1702,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17">
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>58</v>
+      <c r="C30" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F30" s="14">
         <v>1</v>
@@ -1730,21 +1731,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17">
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>58</v>
+      <c r="C31" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F31" s="14">
         <v>1</v>
@@ -1759,21 +1760,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17">
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>58</v>
+      <c r="C32" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F32" s="14">
         <v>1</v>
@@ -1790,19 +1791,19 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>64</v>
+      <c r="C33" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F33" s="14">
         <v>1</v>
@@ -1819,19 +1820,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2">
-        <v>45766</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>64</v>
+        <v>45765</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F34" s="14">
         <v>1</v>
@@ -1848,19 +1849,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2">
-        <v>45766</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>64</v>
+        <v>45765</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F35" s="14">
         <v>1</v>
@@ -1877,19 +1878,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2">
-        <v>45766</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>64</v>
+        <v>45765</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F36" s="14">
         <v>1</v>
@@ -1906,19 +1907,19 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2">
-        <v>45766</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>64</v>
+        <v>45765</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F37" s="14">
         <v>1</v>
@@ -1933,21 +1934,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18">
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>96</v>
+      <c r="C38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F38" s="14">
         <v>1</v>
@@ -1962,24 +1963,24 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18">
+    <row r="39" spans="1:9" ht="17">
       <c r="A39" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>96</v>
+      <c r="C39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F39" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" s="14">
         <v>0</v>
@@ -1991,21 +1992,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" ht="17">
       <c r="A40" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>60</v>
+      <c r="C40" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="F40" s="14">
         <v>1</v>
@@ -2020,30 +2021,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" ht="17">
       <c r="A41" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="F41" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="14">
         <v>0</v>
       </c>
       <c r="H41" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="s">
         <v>109</v>
@@ -2051,22 +2052,22 @@
     </row>
     <row r="42" spans="1:9" ht="17">
       <c r="A42" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F42" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" s="14">
         <v>0</v>
@@ -2080,19 +2081,19 @@
     </row>
     <row r="43" spans="1:9" ht="17">
       <c r="A43" s="2">
-        <v>45766</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>38</v>
+        <v>45765</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F43" s="14">
         <v>2</v>
@@ -2101,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="s">
         <v>109</v>
@@ -2109,7 +2110,7 @@
     </row>
     <row r="44" spans="1:9" ht="17">
       <c r="A44" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>28</v>
@@ -2138,219 +2139,219 @@
     </row>
     <row r="45" spans="1:9" ht="17">
       <c r="A45" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>43</v>
+        <v>101</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F45" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G45" s="14">
         <v>0</v>
       </c>
       <c r="H45" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" ht="17">
       <c r="A46" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>19</v>
+      <c r="C46" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F46" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="14">
         <v>0</v>
       </c>
       <c r="H46" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I46" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" ht="17">
       <c r="A47" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>19</v>
+      <c r="C47" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F47" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" s="14">
         <v>0</v>
       </c>
       <c r="H47" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" ht="17">
       <c r="A48" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>19</v>
+      <c r="C48" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F48" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G48" s="14">
         <v>0</v>
       </c>
       <c r="H48" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" ht="17">
       <c r="A49" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>19</v>
+      <c r="C49" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F49" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49" s="14">
         <v>0</v>
       </c>
       <c r="H49" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" ht="17">
       <c r="A50" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>19</v>
+      <c r="C50" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F50" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="14">
         <v>0</v>
       </c>
       <c r="H50" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" ht="17">
       <c r="A51" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>19</v>
+      <c r="C51" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F51" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="14">
         <v>0</v>
       </c>
       <c r="H51" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="17">
       <c r="A52" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>19</v>
+      <c r="C52" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>74</v>
@@ -2368,18 +2369,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" ht="17">
       <c r="A53" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>19</v>
+      <c r="C53" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>74</v>
@@ -2397,18 +2398,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" ht="17">
       <c r="A54" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>19</v>
+      <c r="C54" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>74</v>
@@ -2426,18 +2427,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" ht="17">
       <c r="A55" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>19</v>
+      <c r="C55" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>74</v>
@@ -2455,18 +2456,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" ht="17">
       <c r="A56" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>19</v>
+      <c r="C56" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>74</v>
@@ -2484,18 +2485,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" ht="17">
       <c r="A57" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>19</v>
+      <c r="C57" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>74</v>
@@ -2513,18 +2514,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" ht="17">
       <c r="A58" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>19</v>
+      <c r="C58" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>74</v>
@@ -2542,18 +2543,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" ht="17">
       <c r="A59" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>19</v>
+      <c r="C59" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>74</v>
@@ -2571,18 +2572,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" ht="17">
       <c r="A60" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>19</v>
+      <c r="C60" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>74</v>
@@ -2600,18 +2601,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" ht="17">
       <c r="A61" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>19</v>
+      <c r="C61" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>74</v>
@@ -2631,19 +2632,19 @@
     </row>
     <row r="62" spans="1:9" ht="17">
       <c r="A62" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>21</v>
+        <v>93</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F62" s="14">
         <v>1</v>
@@ -2660,28 +2661,28 @@
     </row>
     <row r="63" spans="1:9" ht="17">
       <c r="A63" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>23</v>
+        <v>93</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F63" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="14">
         <v>0</v>
       </c>
       <c r="H63" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
         <v>109</v>
@@ -2689,45 +2690,45 @@
     </row>
     <row r="64" spans="1:9" ht="17">
       <c r="A64" s="2">
-        <v>45766</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>16</v>
+        <v>45765</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F64" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" s="14">
         <v>0</v>
       </c>
       <c r="H64" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" ht="17">
       <c r="A65" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>67</v>
+      <c r="C65" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>74</v>
@@ -2745,18 +2746,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" ht="17">
       <c r="A66" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>67</v>
+      <c r="C66" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>74</v>
@@ -2774,18 +2775,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" ht="17">
       <c r="A67" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>67</v>
+      <c r="C67" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>74</v>
@@ -2803,18 +2804,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" ht="17">
       <c r="A68" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>67</v>
+      <c r="C68" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>74</v>
@@ -2832,18 +2833,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" ht="17">
       <c r="A69" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>67</v>
+      <c r="C69" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>74</v>
@@ -2861,21 +2862,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" ht="17">
       <c r="A70" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>105</v>
+      <c r="C70" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F70" s="14">
         <v>1</v>
@@ -2890,21 +2891,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" ht="17">
       <c r="A71" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>105</v>
+      <c r="C71" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F71" s="14">
         <v>1</v>
@@ -2921,19 +2922,19 @@
     </row>
     <row r="72" spans="1:9" ht="17">
       <c r="A72" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>36</v>
+        <v>94</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F72" s="14">
         <v>1</v>
@@ -2950,19 +2951,19 @@
     </row>
     <row r="73" spans="1:9" ht="17">
       <c r="A73" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F73" s="14">
         <v>1</v>
@@ -2979,19 +2980,19 @@
     </row>
     <row r="74" spans="1:9" ht="17">
       <c r="A74" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F74" s="14">
         <v>1</v>
@@ -3006,163 +3007,163 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="17">
+    <row r="75" spans="1:9">
       <c r="A75" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>50</v>
+      <c r="C75" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F75" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="14">
         <v>0</v>
       </c>
       <c r="H75" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="17">
+    <row r="76" spans="1:9">
       <c r="A76" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>50</v>
+      <c r="C76" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F76" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="14">
         <v>0</v>
       </c>
       <c r="H76" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="17">
+    <row r="77" spans="1:9">
       <c r="A77" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>50</v>
+      <c r="C77" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F77" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="14">
         <v>0</v>
       </c>
       <c r="H77" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="17">
+    <row r="78" spans="1:9">
       <c r="A78" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>50</v>
+      <c r="C78" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F78" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="14">
         <v>0</v>
       </c>
       <c r="H78" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="17">
+    <row r="79" spans="1:9">
       <c r="A79" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>87</v>
+      <c r="C79" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F79" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" s="14">
         <v>0</v>
       </c>
       <c r="H79" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" ht="18">
       <c r="A80" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>99</v>
+      <c r="C80" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>74</v>
@@ -3180,18 +3181,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" ht="18">
       <c r="A81" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>99</v>
+      <c r="C81" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>74</v>
@@ -3211,16 +3212,16 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>99</v>
+        <v>60</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>74</v>
@@ -3240,16 +3241,16 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>99</v>
+        <v>60</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>74</v>
@@ -3269,16 +3270,16 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>99</v>
+      <c r="C84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>74</v>
@@ -3296,18 +3297,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="17">
+    <row r="85" spans="1:9">
       <c r="A85" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>44</v>
+      <c r="C85" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>74</v>
@@ -3325,18 +3326,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="17">
+    <row r="86" spans="1:9">
       <c r="A86" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>44</v>
+      <c r="C86" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>74</v>
@@ -3354,18 +3355,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="17">
+    <row r="87" spans="1:9">
       <c r="A87" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>52</v>
+      <c r="C87" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>74</v>
@@ -3383,18 +3384,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="17">
+    <row r="88" spans="1:9">
       <c r="A88" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>52</v>
+      <c r="C88" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>74</v>
@@ -3412,18 +3413,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="17">
+    <row r="89" spans="1:9">
       <c r="A89" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>52</v>
+      <c r="C89" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>74</v>
@@ -3441,18 +3442,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="17">
+    <row r="90" spans="1:9">
       <c r="A90" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>52</v>
+      <c r="C90" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>74</v>
@@ -3470,18 +3471,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="17">
+    <row r="91" spans="1:9">
       <c r="A91" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>52</v>
+      <c r="C91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>74</v>
@@ -3501,16 +3502,16 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>65</v>
+      <c r="C92" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>74</v>
@@ -3530,16 +3531,16 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>65</v>
+      <c r="C93" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>74</v>
@@ -3559,16 +3560,16 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>65</v>
+      <c r="C94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>74</v>
@@ -3588,16 +3589,16 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>65</v>
+      <c r="C95" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>74</v>
@@ -3617,16 +3618,16 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="11" t="s">
-        <v>65</v>
+      <c r="C96" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>74</v>
@@ -3644,21 +3645,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18">
+    <row r="97" spans="1:9">
       <c r="A97" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="8" t="s">
-        <v>27</v>
+      <c r="C97" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F97" s="14">
         <v>1</v>
@@ -3673,21 +3674,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18">
+    <row r="98" spans="1:9">
       <c r="A98" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>27</v>
+      <c r="C98" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F98" s="14">
         <v>1</v>
@@ -3702,21 +3703,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18">
+    <row r="99" spans="1:9">
       <c r="A99" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>27</v>
+      <c r="C99" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F99" s="14">
         <v>1</v>
@@ -3731,21 +3732,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18">
+    <row r="100" spans="1:9">
       <c r="A100" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>27</v>
+      <c r="C100" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F100" s="14">
         <v>1</v>
@@ -3760,21 +3761,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18">
+    <row r="101" spans="1:9">
       <c r="A101" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>27</v>
+      <c r="C101" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F101" s="14">
         <v>1</v>
@@ -3789,21 +3790,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18">
+    <row r="102" spans="1:9">
       <c r="A102" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>27</v>
+      <c r="C102" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F102" s="14">
         <v>1</v>
@@ -3818,21 +3819,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18">
+    <row r="103" spans="1:9">
       <c r="A103" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>27</v>
+      <c r="C103" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F103" s="14">
         <v>1</v>
@@ -3849,19 +3850,19 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>25</v>
+      <c r="C104" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F104" s="14">
         <v>1</v>
@@ -3876,146 +3877,146 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" ht="17">
       <c r="A105" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>25</v>
+      <c r="C105" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F105" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105" s="14">
         <v>0</v>
       </c>
       <c r="H105" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" ht="17">
       <c r="A106" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>25</v>
+      <c r="C106" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F106" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" s="14">
         <v>0</v>
       </c>
       <c r="H106" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" ht="17">
       <c r="A107" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>25</v>
+      <c r="C107" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F107" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" s="14">
         <v>0</v>
       </c>
       <c r="H107" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" ht="17">
       <c r="A108" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>25</v>
+      <c r="C108" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F108" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" s="14">
         <v>0</v>
       </c>
       <c r="H108" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" ht="17">
       <c r="A109" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>25</v>
+      <c r="C109" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F109" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" s="14">
         <v>0</v>
       </c>
       <c r="H109" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="s">
         <v>109</v>
@@ -4023,19 +4024,19 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>25</v>
+      <c r="C110" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F110" s="14">
         <v>1</v>
@@ -4050,24 +4051,24 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="17">
+    <row r="111" spans="1:9">
       <c r="A111" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>106</v>
+      <c r="C111" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>51</v>
+        <v>99</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F111" s="14">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G111" s="14">
         <v>0</v>
@@ -4079,21 +4080,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="17">
+    <row r="112" spans="1:9">
       <c r="A112" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>29</v>
+        <v>99</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F112" s="14">
         <v>1</v>
@@ -4110,28 +4111,28 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>30</v>
+      <c r="C113" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F113" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113" s="14">
         <v>0</v>
       </c>
       <c r="H113" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="s">
         <v>109</v>
@@ -4139,19 +4140,19 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>30</v>
+      <c r="C114" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F114" s="14">
         <v>1</v>
@@ -4168,19 +4169,19 @@
     </row>
     <row r="115" spans="1:9" ht="17">
       <c r="A115" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="11" t="s">
-        <v>72</v>
+      <c r="C115" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F115" s="14">
         <v>1</v>
@@ -4195,21 +4196,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" ht="17">
       <c r="A116" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>26</v>
+      <c r="C116" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F116" s="14">
         <v>1</v>
@@ -4224,21 +4225,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" ht="17">
       <c r="A117" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>26</v>
+      <c r="C117" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F117" s="14">
         <v>1</v>
@@ -4253,21 +4254,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" ht="17">
       <c r="A118" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>26</v>
+      <c r="C118" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F118" s="14">
         <v>1</v>
@@ -4282,21 +4283,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" ht="17">
       <c r="A119" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>26</v>
+      <c r="C119" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F119" s="14">
         <v>1</v>
@@ -4311,21 +4312,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" ht="17">
       <c r="A120" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>26</v>
+      <c r="C120" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F120" s="14">
         <v>1</v>
@@ -4340,21 +4341,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" ht="17">
       <c r="A121" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>26</v>
+      <c r="C121" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F121" s="14">
         <v>1</v>
@@ -4371,19 +4372,19 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>26</v>
+      <c r="C122" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F122" s="14">
         <v>1</v>
@@ -4400,19 +4401,19 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>26</v>
+      <c r="C123" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F123" s="14">
         <v>1</v>
@@ -4427,21 +4428,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="17">
+    <row r="124" spans="1:9">
       <c r="A124" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>45</v>
+      <c r="C124" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>49</v>
+        <v>100</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F124" s="14">
         <v>1</v>
@@ -4456,21 +4457,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="17">
+    <row r="125" spans="1:9">
       <c r="A125" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>68</v>
+        <v>100</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F125" s="14">
         <v>1</v>
@@ -4485,30 +4486,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="17">
+    <row r="126" spans="1:9">
       <c r="A126" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>71</v>
+        <v>100</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F126" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" s="14">
         <v>0</v>
       </c>
       <c r="H126" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="s">
         <v>109</v>
@@ -4516,7 +4517,7 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>7</v>
@@ -4545,7 +4546,7 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>7</v>
@@ -4574,7 +4575,7 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>7</v>
@@ -4603,7 +4604,7 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>7</v>
@@ -4632,7 +4633,7 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>7</v>
@@ -4661,7 +4662,7 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>7</v>
@@ -4690,7 +4691,7 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>7</v>
@@ -4719,7 +4720,7 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>7</v>
@@ -4748,7 +4749,7 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>7</v>
@@ -4777,7 +4778,7 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>7</v>
@@ -4806,7 +4807,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>7</v>
@@ -4835,7 +4836,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>7</v>
@@ -4864,7 +4865,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>7</v>
@@ -4893,7 +4894,7 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>7</v>
@@ -4922,7 +4923,7 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>7</v>
@@ -4951,7 +4952,7 @@
     </row>
     <row r="142" spans="1:9" ht="17">
       <c r="A142" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>7</v>
@@ -4980,7 +4981,7 @@
     </row>
     <row r="143" spans="1:9" ht="17">
       <c r="A143" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>7</v>
@@ -5009,7 +5010,7 @@
     </row>
     <row r="144" spans="1:9" ht="17">
       <c r="A144" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>7</v>
@@ -5038,7 +5039,7 @@
     </row>
     <row r="145" spans="1:9" ht="17">
       <c r="A145" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>7</v>
@@ -5067,7 +5068,7 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>7</v>
@@ -5096,7 +5097,7 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>7</v>
@@ -5125,7 +5126,7 @@
     </row>
     <row r="148" spans="1:9" ht="17">
       <c r="A148" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>7</v>
@@ -5154,7 +5155,7 @@
     </row>
     <row r="149" spans="1:9" ht="17">
       <c r="A149" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>7</v>
@@ -5183,7 +5184,7 @@
     </row>
     <row r="150" spans="1:9" ht="17">
       <c r="A150" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>7</v>
@@ -5212,7 +5213,7 @@
     </row>
     <row r="151" spans="1:9" ht="17">
       <c r="A151" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>7</v>
@@ -5241,7 +5242,7 @@
     </row>
     <row r="152" spans="1:9" ht="17">
       <c r="A152" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>7</v>
@@ -5270,7 +5271,7 @@
     </row>
     <row r="153" spans="1:9" ht="17">
       <c r="A153" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>7</v>
@@ -5299,7 +5300,7 @@
     </row>
     <row r="154" spans="1:9" ht="17">
       <c r="A154" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>7</v>
@@ -5328,7 +5329,7 @@
     </row>
     <row r="155" spans="1:9" ht="17">
       <c r="A155" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>7</v>
@@ -5357,7 +5358,7 @@
     </row>
     <row r="156" spans="1:9" ht="17">
       <c r="A156" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>7</v>
@@ -5386,7 +5387,7 @@
     </row>
     <row r="157" spans="1:9" ht="17">
       <c r="A157" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>7</v>
@@ -5415,7 +5416,7 @@
     </row>
     <row r="158" spans="1:9" ht="17">
       <c r="A158" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>7</v>
@@ -5444,7 +5445,7 @@
     </row>
     <row r="159" spans="1:9" ht="17">
       <c r="A159" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>7</v>
@@ -5473,7 +5474,7 @@
     </row>
     <row r="160" spans="1:9" ht="17">
       <c r="A160" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>7</v>
@@ -5500,30 +5501,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="17">
+    <row r="161" spans="1:9">
       <c r="A161" s="2">
-        <v>45766</v>
-      </c>
-      <c r="B161" s="3" t="s">
+        <v>45765</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>13</v>
+        <v>91</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F161" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G161" s="14">
         <v>0</v>
       </c>
       <c r="H161" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="s">
         <v>109</v>
@@ -5531,7 +5532,7 @@
     </row>
     <row r="162" spans="1:9" ht="17">
       <c r="A162" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>7</v>
@@ -5558,21 +5559,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" ht="17">
       <c r="A163" s="2">
-        <v>45766</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>8</v>
+        <v>45765</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>38</v>
+        <v>82</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F163" s="14">
         <v>1</v>
@@ -5587,21 +5588,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" ht="17">
       <c r="A164" s="2">
-        <v>45766</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>7</v>
+        <v>45765</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F164" s="14">
         <v>1</v>
@@ -5616,21 +5617,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" ht="17">
       <c r="A165" s="2">
-        <v>45766</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>8</v>
+        <v>45765</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>38</v>
+        <v>93</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F165" s="14">
         <v>1</v>
@@ -5639,15 +5640,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" ht="17">
       <c r="A166" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>7</v>
@@ -5658,40 +5659,40 @@
       <c r="D166" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>38</v>
+      <c r="E166" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F166" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G166" s="14">
         <v>0</v>
       </c>
       <c r="H166" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" ht="17">
       <c r="A167" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="3" t="s">
-        <v>8</v>
+      <c r="C167" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="F167" s="14">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G167" s="14">
         <v>0</v>
@@ -5703,30 +5704,30 @@
         <v>109</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" ht="17">
       <c r="A168" s="2">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C168" s="9" t="s">
-        <v>34</v>
+      <c r="C168" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>38</v>
+        <v>101</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F168" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G168" s="14">
         <v>0</v>
       </c>
       <c r="H168" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="s">
         <v>109</v>
@@ -5735,48 +5736,49 @@
   </sheetData>
   <autoFilter ref="A1:H168" xr:uid="{4E4F51D0-2892-5F4F-92B8-4B7CDCE73930}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H168">
-      <sortCondition ref="C1:C168"/>
+      <sortCondition ref="E1:E168"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="C146" r:id="rId1" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/717/change/?_changelist_filters=all%3D" xr:uid="{9B3B74B9-D766-694E-A2B0-EDD8266A147E}"/>
-    <hyperlink ref="C40" r:id="rId2" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/716/change/?_changelist_filters=all%3D" xr:uid="{171F6F5B-C560-404A-AF53-2E7A626A2403}"/>
+    <hyperlink ref="C82" r:id="rId2" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/716/change/?_changelist_filters=all%3D" xr:uid="{171F6F5B-C560-404A-AF53-2E7A626A2403}"/>
     <hyperlink ref="C147" r:id="rId3" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/717/change/?_changelist_filters=all%3D" xr:uid="{AE2263F2-E34A-1B44-891D-72C9C8247E8C}"/>
-    <hyperlink ref="C41" r:id="rId4" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/716/change/?_changelist_filters=all%3D" xr:uid="{5B5C4F99-41B2-8044-8DA5-1FE54952EB60}"/>
+    <hyperlink ref="C83" r:id="rId4" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/716/change/?_changelist_filters=all%3D" xr:uid="{5B5C4F99-41B2-8044-8DA5-1FE54952EB60}"/>
     <hyperlink ref="C135" r:id="rId5" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/710/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{39E49463-96E9-8946-8D45-022CC52BD7F9}"/>
     <hyperlink ref="C129" r:id="rId6" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/709/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{CF73B9DF-E51F-9640-A59B-3249A46E7653}"/>
-    <hyperlink ref="C33" r:id="rId7" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/708/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{16DBF728-EE24-3C46-8A48-12F2C87DCE21}"/>
-    <hyperlink ref="C92" r:id="rId8" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/713/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{2C0E580B-3419-924B-97D0-1FD0B8EE2B0C}"/>
-    <hyperlink ref="C80" r:id="rId9" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/712/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{22C819E2-FE62-C245-9403-28D2772C7CE4}"/>
-    <hyperlink ref="C65" r:id="rId10" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/711/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{726ED55C-1FFD-B640-BFD5-FA6376EDF917}"/>
+    <hyperlink ref="C75" r:id="rId7" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/708/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{16DBF728-EE24-3C46-8A48-12F2C87DCE21}"/>
+    <hyperlink ref="C122" r:id="rId8" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/713/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{2C0E580B-3419-924B-97D0-1FD0B8EE2B0C}"/>
+    <hyperlink ref="C110" r:id="rId9" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/712/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{22C819E2-FE62-C245-9403-28D2772C7CE4}"/>
+    <hyperlink ref="C100" r:id="rId10" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/711/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{726ED55C-1FFD-B640-BFD5-FA6376EDF917}"/>
     <hyperlink ref="C136" r:id="rId11" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/710/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{008DE997-2076-3C41-AF89-B0CA9A1C6687}"/>
     <hyperlink ref="C130" r:id="rId12" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/709/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{F2628BA1-63CA-A544-B362-50B3EB5E8D08}"/>
-    <hyperlink ref="C34" r:id="rId13" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/708/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{B6AB6C46-95DC-0B45-B5D6-F7DE923D29F4}"/>
-    <hyperlink ref="C93" r:id="rId14" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/713/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{399600E4-56B1-FA44-B75E-D3F579EEF488}"/>
-    <hyperlink ref="C81" r:id="rId15" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/712/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{3B5495B8-290F-4345-A90C-4C4557A930BD}"/>
-    <hyperlink ref="C66" r:id="rId16" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/711/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{020EE3E8-CD2B-DF4D-AC93-B093EC8C6201}"/>
+    <hyperlink ref="C76" r:id="rId13" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/708/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{B6AB6C46-95DC-0B45-B5D6-F7DE923D29F4}"/>
+    <hyperlink ref="C123" r:id="rId14" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/713/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{399600E4-56B1-FA44-B75E-D3F579EEF488}"/>
+    <hyperlink ref="C111" r:id="rId15" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/712/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{3B5495B8-290F-4345-A90C-4C4557A930BD}"/>
+    <hyperlink ref="C101" r:id="rId16" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/711/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{020EE3E8-CD2B-DF4D-AC93-B093EC8C6201}"/>
     <hyperlink ref="C137" r:id="rId17" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/710/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{D7766D79-C119-BD4D-812B-1AD06095CD1A}"/>
     <hyperlink ref="C131" r:id="rId18" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/709/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{F05BC89D-2067-1C47-8CEF-F99706483C73}"/>
-    <hyperlink ref="C35" r:id="rId19" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/708/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{C329857A-EEED-484B-AF30-29E0BA3C0D29}"/>
-    <hyperlink ref="C94" r:id="rId20" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/713/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{B0150475-8E7D-E14E-89F2-D9EFECB17D56}"/>
-    <hyperlink ref="C82" r:id="rId21" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/712/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{EADA7CF8-A006-854C-A205-0E49BD7FE99A}"/>
-    <hyperlink ref="C67" r:id="rId22" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/711/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{781CD9C3-FE84-4E4A-AB4F-1C63580543E3}"/>
+    <hyperlink ref="C77" r:id="rId19" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/708/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{C329857A-EEED-484B-AF30-29E0BA3C0D29}"/>
+    <hyperlink ref="C124" r:id="rId20" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/713/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{B0150475-8E7D-E14E-89F2-D9EFECB17D56}"/>
+    <hyperlink ref="C112" r:id="rId21" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/712/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{EADA7CF8-A006-854C-A205-0E49BD7FE99A}"/>
+    <hyperlink ref="C102" r:id="rId22" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/711/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{781CD9C3-FE84-4E4A-AB4F-1C63580543E3}"/>
     <hyperlink ref="C138" r:id="rId23" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/710/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{3D277C00-632D-214B-B13C-DE57B0E939E5}"/>
     <hyperlink ref="C132" r:id="rId24" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/709/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{9A98F09B-5628-E34E-A1E4-415BB7E1CBA1}"/>
-    <hyperlink ref="C36" r:id="rId25" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/708/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{8C6166E9-C928-6E46-8405-513CAACAD7AA}"/>
-    <hyperlink ref="C95" r:id="rId26" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/713/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{F6F71F1B-3B53-F74B-B3F9-42C71B7B2828}"/>
-    <hyperlink ref="C83" r:id="rId27" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/712/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{AAB5E87A-CCC2-3A4B-A02F-818E76C9AD8A}"/>
-    <hyperlink ref="C68" r:id="rId28" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/711/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{DA0EC332-511E-E645-B555-B79CC9E1DB64}"/>
+    <hyperlink ref="C78" r:id="rId25" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/708/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{8C6166E9-C928-6E46-8405-513CAACAD7AA}"/>
+    <hyperlink ref="C125" r:id="rId26" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/713/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{F6F71F1B-3B53-F74B-B3F9-42C71B7B2828}"/>
+    <hyperlink ref="C113" r:id="rId27" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/712/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{AAB5E87A-CCC2-3A4B-A02F-818E76C9AD8A}"/>
+    <hyperlink ref="C103" r:id="rId28" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/711/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{DA0EC332-511E-E645-B555-B79CC9E1DB64}"/>
     <hyperlink ref="C139" r:id="rId29" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/710/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{9EFDE374-E481-7F44-85C3-51F3E0B3C226}"/>
     <hyperlink ref="C133" r:id="rId30" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/709/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{D0A6ED29-C530-8247-9BF1-913369AD0566}"/>
-    <hyperlink ref="C37" r:id="rId31" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/708/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{1D767C71-3531-5F4B-91C9-964EABC0116E}"/>
-    <hyperlink ref="C96" r:id="rId32" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/713/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{0CD281BC-638C-D649-B57C-BF7A37D86D42}"/>
-    <hyperlink ref="C84" r:id="rId33" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/712/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{61C1FBD7-49E3-B94D-B041-0057785D9629}"/>
-    <hyperlink ref="C69" r:id="rId34" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/711/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{6C7292D0-9C0D-1F4E-A91A-F4A3227E144A}"/>
+    <hyperlink ref="C79" r:id="rId31" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/708/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{1D767C71-3531-5F4B-91C9-964EABC0116E}"/>
+    <hyperlink ref="C126" r:id="rId32" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/713/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{0CD281BC-638C-D649-B57C-BF7A37D86D42}"/>
+    <hyperlink ref="C114" r:id="rId33" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/712/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{61C1FBD7-49E3-B94D-B041-0057785D9629}"/>
+    <hyperlink ref="C104" r:id="rId34" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/711/change/?_changelist_filters=q%3Dgrand%26all%3D" xr:uid="{6C7292D0-9C0D-1F4E-A91A-F4A3227E144A}"/>
     <hyperlink ref="C140" r:id="rId35" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/710/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{DDD6A88A-1B2E-D545-9CE8-BC1FADE7FFB1}"/>
     <hyperlink ref="C134" r:id="rId36" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/709/change/?_changelist_filters=q%3Dagneb%26all%3D" xr:uid="{39582BD0-0EB9-DB43-A000-0EC7B2704EC8}"/>
-    <hyperlink ref="C115" r:id="rId37" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/781/change/?_changelist_filters=q%3Dnawa%26all%3D" xr:uid="{92FC1AA3-02EE-A649-BABE-4AE51A424A54}"/>
+    <hyperlink ref="C4" r:id="rId37" display="http://127.0.0.1:8000/backend/admin/v1cogu/districtsanitaire/781/change/?_changelist_filters=q%3Dnawa%26all%3D" xr:uid="{92FC1AA3-02EE-A649-BABE-4AE51A424A54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>